--- a/Spreadsheet Interface/Input_Spreadsheet_v250222.xlsx
+++ b/Spreadsheet Interface/Input_Spreadsheet_v250222.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kleinschmidtgroup-my.sharepoint.com/personal/kevin_nebiolo_kleinschmidtgroup_com/Documents/Software/stryke/Spreadsheet Interface/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_CDCAB5CB0247715E3683B1F3A2D225904E54B183" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BD7BF2A-9D1E-47E2-9079-362A8AAE7A60}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_CDCAB5CB0247715E3683B1F3A2D225904E54B183" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECFA113C-E7FF-462A-8B4A-56E2EA3B5A36}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Background and Metadata" sheetId="1" r:id="rId1"/>
@@ -1062,7 +1062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AZ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -26333,8 +26333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:HA13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26677,7 +26677,7 @@
         <v>0.4118</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="P13">
         <v>0.5907</v>
